--- a/data/trans_dic/P02E$contratada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,9</t>
+          <t>0,73; 6,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,45</t>
+          <t>0,6; 5,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,79</t>
+          <t>0,63; 5,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,69</t>
+          <t>1,07; 5,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,38</t>
+          <t>1,06; 4,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,84</t>
+          <t>0,66; 5,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,9</t>
+          <t>1,15; 4,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,92</t>
+          <t>1,21; 3,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,67</t>
+          <t>0,97; 4,63</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,25</t>
+          <t>0,23; 3,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,3</t>
+          <t>0,15; 1,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,28</t>
+          <t>1,22; 4,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,43</t>
+          <t>0,41; 2,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,04</t>
+          <t>0,53; 2,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,93</t>
+          <t>0,44; 2,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,32</t>
+          <t>0,56; 2,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,5</t>
+          <t>0,45; 1,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,56</t>
+          <t>0,98; 2,43</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,5</t>
+          <t>0,81; 7,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,9</t>
+          <t>2,72; 11,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,88</t>
+          <t>0,68; 6,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,24</t>
+          <t>0,6; 6,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,9</t>
+          <t>1,78; 8,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,63</t>
+          <t>2,38; 8,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,03</t>
+          <t>1,25; 5,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,76</t>
+          <t>2,87; 8,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,37</t>
+          <t>2,13; 6,33</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,38</t>
+          <t>0,84; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,78</t>
+          <t>1,01; 2,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,71</t>
+          <t>1,41; 3,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,79</t>
+          <t>0,97; 2,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,7</t>
+          <t>1,22; 2,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,99</t>
+          <t>1,26; 3,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,65</t>
+          <t>1,1; 2,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,49</t>
+          <t>1,32; 2,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,91</t>
+          <t>1,57; 2,92</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa contratada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2760</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7346</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9076</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4865</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10229</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13066</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>826; 7605</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1079; 9708</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>801; 7633</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2906; 14939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4107; 17147</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1301; 11313</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4435; 18616</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6899; 21973</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3171; 15070</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3042</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11682</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6225</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9963</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7145</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10763</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13005</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18827</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>899; 12517</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>936; 8034</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5865; 19544</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2327; 14461</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4805; 18138</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3040; 14202</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5337; 20609</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6852; 21418</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11485; 28634</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3636</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9669</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9580</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10530</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7789</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19249</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13706</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1021; 9094</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4811; 19652</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>979; 8843</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9995</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3994; 19152</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5085; 18428</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3651; 15066</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11523; 32188</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7623; 22679</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5288; 20210</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9946; 27701</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10613; 27992</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9755; 28288</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18523; 42096</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14020; 34084</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17969; 41980</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33039; 60461</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29224; 54368</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>